--- a/data/trans_bre/P57_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Edad-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>0.934106356411548</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>4.118584298484066</v>
+        <v>4.118584298484067</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.1551655055853165</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>1.208713412872746</v>
+        <v>1.208713412872747</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.357086907071249</v>
+        <v>-2.684397744611883</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1675186868711981</v>
+        <v>-0.9107872368243922</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.3235373245405535</v>
+        <v>-0.3611582727677088</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2119644637980517</v>
+        <v>-0.2094503270367393</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.480207785441059</v>
+        <v>4.426687317831962</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.635031070660979</v>
+        <v>8.595226394184506</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1.159282922797464</v>
+        <v>1.13316479931186</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5.678378555852168</v>
+        <v>4.699310749808796</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.91948312382272</v>
+        <v>-5.821857885810586</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.926860095321825</v>
+        <v>-5.442910228334169</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.392805709548835</v>
+        <v>-0.3880895469706353</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4691404365906365</v>
+        <v>-0.4981651981121724</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.604210490116702</v>
+        <v>1.624476936626677</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.907478474196906</v>
+        <v>2.713366754232337</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1514397881385161</v>
+        <v>0.1527001703875397</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5400526896535979</v>
+        <v>0.4968505296547975</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>-0.5309489993919475</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-1.005151192942269</v>
+        <v>-1.005151192942268</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>-0.03686679886223038</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.1187143396584521</v>
+        <v>-0.118714339658452</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.615104646028287</v>
+        <v>-4.448858532840489</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.183513452241231</v>
+        <v>-4.176935077535853</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.2787963704316531</v>
+        <v>-0.2690407801270177</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3899041049003196</v>
+        <v>-0.3965780014214822</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.115718579440115</v>
+        <v>3.133992631973441</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.753064218145059</v>
+        <v>1.715584494168413</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.2441930003576614</v>
+        <v>0.246102055822687</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.2610181100512584</v>
+        <v>0.2656053104465537</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>0.3176177030416283</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>4.96836421041499</v>
+        <v>4.968364210414994</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.01453595070961805</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.4696027077295699</v>
+        <v>0.4696027077295705</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.377467074066265</v>
+        <v>-4.537929526455716</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.879032983648784</v>
+        <v>1.540801249822737</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1796650224255242</v>
+        <v>-0.1846213371233091</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.133718052226521</v>
+        <v>0.1078331261635324</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.1909350294537</v>
+        <v>4.980833200902445</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.111654167537951</v>
+        <v>8.085227755080492</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2617285053046391</v>
+        <v>0.2681873839923019</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8921358431626033</v>
+        <v>0.9415661254097769</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>14.05039131226438</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>4.573636630793071</v>
+        <v>4.573636630793068</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.7180245649024313</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.2204957448170489</v>
+        <v>0.2204957448170488</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.733705060471554</v>
+        <v>8.233862891220943</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1530011749609223</v>
+        <v>0.1866221378640727</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.3266678334446172</v>
+        <v>0.3413785854365084</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.00360611659249538</v>
+        <v>0.007762817990560657</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>19.79286534105828</v>
+        <v>19.85350796452058</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.693317666810611</v>
+        <v>8.450994952505438</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1.165840032326091</v>
+        <v>1.174017758084103</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.4800280807788958</v>
+        <v>0.4736317796928264</v>
       </c>
     </row>
     <row r="19">
@@ -918,7 +918,7 @@
         <v>0.3898986500592133</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.3685034461372065</v>
+        <v>0.3685034461372066</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.332514284810932</v>
+        <v>3.034559822406311</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.517031313487661</v>
+        <v>2.108929747917657</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1371931283552772</v>
+        <v>0.1047873702405021</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.116819818170459</v>
+        <v>0.09807292748446864</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>18.22651285108149</v>
+        <v>17.37948604910287</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>10.95159939104369</v>
+        <v>10.72598249514449</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7669200820073123</v>
+        <v>0.7345388721396816</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6781417789516643</v>
+        <v>0.6782058231820478</v>
       </c>
     </row>
     <row r="22">
@@ -976,13 +976,13 @@
         <v>8.249073891724834</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>4.057877152833794</v>
+        <v>4.057877152833806</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0.2033016523468578</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.1333536825570231</v>
+        <v>0.1333536825570235</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1146239462695414</v>
+        <v>-0.7453043267906615</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.317096619605839</v>
+        <v>-1.562214384469192</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.002119802555635675</v>
+        <v>-0.01443250630815352</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.03858887320974039</v>
+        <v>-0.04654442421612147</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.0258683739623</v>
+        <v>15.91398753785156</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.499027683697596</v>
+        <v>8.975543673325257</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.4198887983937816</v>
+        <v>0.4338144925080382</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.3586588167631994</v>
+        <v>0.3397705263333969</v>
       </c>
     </row>
     <row r="25">
@@ -1040,13 +1040,13 @@
         <v>4.946510199818569</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>3.893990672901262</v>
+        <v>3.893990672901265</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.2670981561469967</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.290666194610063</v>
+        <v>0.2906661946100632</v>
       </c>
     </row>
     <row r="26">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.813686944952085</v>
+        <v>3.034440736228122</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.274358369224305</v>
+        <v>2.272260379409626</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1432535460725199</v>
+        <v>0.1551134223475923</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1607019873916282</v>
+        <v>0.1640968160831307</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.012793117179328</v>
+        <v>7.056081778334086</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.36039126589773</v>
+        <v>5.400147911213102</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4003372753326987</v>
+        <v>0.4025077309879963</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4236579760968331</v>
+        <v>0.4304855924093601</v>
       </c>
     </row>
     <row r="28">
